--- a/test_data/Выкупы — копия (2).xlsx
+++ b/test_data/Выкупы — копия (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Astrocatling\WBbot\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6EE2D7-F482-44ED-8D5C-81CA2E618E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4B399-4AE8-4092-BD3E-A44DE41F54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1520" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
+    <workbookView xWindow="2820" yWindow="1860" windowWidth="28080" windowHeight="15910" xr2:uid="{3D39B954-54E1-433D-BDD4-09D5FB40C627}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Артикул</t>
   </si>
@@ -46,7 +46,13 @@
     <t>Количество необходимых ПВЗ</t>
   </si>
   <si>
-    <t>пирcинг</t>
+    <t>inn</t>
+  </si>
+  <si>
+    <t>купальник женский раздельный с высокой талией</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
 </sst>
 </file>
@@ -102,12 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -423,18 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5D944-6DD4-458D-AE01-0CEC5CCC11F0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="52.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="55.54296875" customWidth="1"/>
     <col min="6" max="6" width="47.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -451,39 +459,68 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
-        <v>17616604</v>
+      <c r="A2" s="4">
+        <v>74299067</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
-        <v>33854400</v>
+      <c r="A3" s="4">
+        <v>68644092</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4">
+        <v>34355540</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
